--- a/ART_PI_引脚分布.xlsx
+++ b/ART_PI_引脚分布.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5153A666-9CA5-499C-9245-CA5C9B7F5A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A822627-C8B2-4C76-A82F-C2EA781CBC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,23 +737,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>PF14</t>
-  </si>
-  <si>
-    <t>PF15</t>
-  </si>
-  <si>
     <t>PG0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG1</t>
-  </si>
-  <si>
-    <t>PG2</t>
   </si>
   <si>
     <t>PD14</t>
@@ -1115,12 +1100,32 @@
     <t>BT_HDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PF13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1189,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1283,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1300,6 +1312,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,15 +1333,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1601,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1633,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1629,8 +1642,8 @@
       <c r="C1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>292</v>
+      <c r="D1" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>27</v>
@@ -1638,8 +1651,8 @@
       <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>295</v>
+      <c r="G1" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>60</v>
@@ -1649,21 +1662,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="5" t="s">
         <v>61</v>
       </c>
@@ -1672,7 +1685,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1681,14 +1694,14 @@
       <c r="C3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
         <v>62</v>
       </c>
@@ -1697,21 +1710,21 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
@@ -1720,23 +1733,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>283</v>
+      <c r="A5" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="5" t="s">
         <v>64</v>
       </c>
@@ -1745,21 +1758,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="5" t="s">
         <v>65</v>
       </c>
@@ -1768,21 +1781,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1791,621 +1804,621 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>261</v>
+      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>262</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>263</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>264</v>
+      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>265</v>
+      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>266</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>267</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>268</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>269</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>270</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>271</v>
+      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>284</v>
+      <c r="A21" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="D22" s="17"/>
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>274</v>
+      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="D24" s="17"/>
       <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>285</v>
+      <c r="A25" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>276</v>
+      </c>
+      <c r="D25" s="17"/>
       <c r="E25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>277</v>
+      </c>
+      <c r="D26" s="17"/>
       <c r="E26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>286</v>
+      <c r="A27" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="21"/>
+        <v>235</v>
+      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="21"/>
+        <v>236</v>
+      </c>
+      <c r="D28" s="17"/>
       <c r="E28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>237</v>
+      </c>
+      <c r="D29" s="17"/>
       <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>238</v>
+      </c>
+      <c r="D30" s="17"/>
       <c r="E30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>287</v>
+      <c r="A31" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>239</v>
+      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>240</v>
+      </c>
+      <c r="D32" s="17"/>
       <c r="E32" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>294</v>
+        <v>242</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>109</v>
@@ -2413,170 +2426,174 @@
       <c r="F34" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="17"/>
+        <v>243</v>
+      </c>
+      <c r="D35" s="20"/>
       <c r="E35" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="17"/>
+        <v>244</v>
+      </c>
+      <c r="D36" s="20"/>
       <c r="E36" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>288</v>
+        <v>223</v>
+      </c>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="17"/>
+        <v>245</v>
+      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
       <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>289</v>
+        <v>225</v>
+      </c>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="17"/>
+        <v>247</v>
+      </c>
+      <c r="D39" s="20"/>
       <c r="E39" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>248</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>296</v>
+      <c r="G40" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>136</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>290</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>293</v>
+        <v>249</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>128</v>
@@ -2584,140 +2601,140 @@
       <c r="F41" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="6" t="s">
         <v>137</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="17"/>
+        <v>251</v>
+      </c>
+      <c r="D42" s="20"/>
       <c r="E42" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="6" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
       <c r="B43" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="D43" s="20"/>
       <c r="E43" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="6" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="D44" s="20"/>
       <c r="E44" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="6" t="s">
         <v>140</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>291</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="17"/>
+        <v>253</v>
+      </c>
+      <c r="D45" s="20"/>
       <c r="E45" s="6" t="s">
         <v>132</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="6" t="s">
         <v>141</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
       <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="D46" s="20"/>
       <c r="E46" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="6" t="s">
         <v>142</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
       <c r="B47" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="D47" s="20"/>
       <c r="E47" s="6" t="s">
         <v>134</v>
       </c>
@@ -2725,38 +2742,33 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
       <c r="B48" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" s="18"/>
+        <v>257</v>
+      </c>
+      <c r="D48" s="21"/>
       <c r="E48" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="G1:G39"/>
-    <mergeCell ref="G40:G46"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
@@ -2769,6 +2781,11 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A44"/>
+    <mergeCell ref="D1:D33"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="G1:G39"/>
+    <mergeCell ref="G40:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
